--- a/sofaplayer/Serie_A/Cremonese_stats.xlsx
+++ b/sofaplayer/Serie_A/Cremonese_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>173827</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7</v>
+        <v>6.6761904761905</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>1609</v>
+        <v>1667</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -1053,22 +1053,22 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6229</v>
+        <v>3.82</v>
       </c>
       <c r="L2" t="n">
-        <v>321.8</v>
+        <v>333.4</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>27.777777777778</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1101,34 +1101,34 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.68750271</v>
+        <v>0.71229701</v>
       </c>
       <c r="AB2" t="n">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="AC2" t="n">
         <v>3</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AF2" t="n">
-        <v>59.641255605381</v>
+        <v>61.087866108787</v>
       </c>
       <c r="AG2" t="n">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AI2" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AJ2" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="n">
         <v>3</v>
@@ -1149,13 +1149,13 @@
         <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT2" t="n">
         <v>20</v>
@@ -1176,31 +1176,31 @@
         <v>4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>50</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BA2" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BB2" t="n">
-        <v>41.071428571429</v>
+        <v>40.340909090909</v>
       </c>
       <c r="BC2" t="n">
         <v>30</v>
       </c>
       <c r="BD2" t="n">
-        <v>44.776119402985</v>
+        <v>41.095890410959</v>
       </c>
       <c r="BE2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BF2" t="n">
-        <v>38.613861386139</v>
+        <v>39.805825242718</v>
       </c>
       <c r="BG2" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="BH2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BI2" t="n">
         <v>16</v>
@@ -1227,22 +1227,22 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>134</v>
+        <v>140.2</v>
       </c>
       <c r="BR2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS2" t="n">
         <v>6</v>
       </c>
       <c r="BT2" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CA2" t="n">
         <v>2</v>
       </c>
       <c r="CB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CC2" t="n">
         <v>10</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CU2" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="CV2" t="n">
         <v>62</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="DG2" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>333261</v>
       </c>
       <c r="E3" t="n">
-        <v>6.575</v>
+        <v>6.5647058823529</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>2.7293</v>
       </c>
       <c r="L3" t="n">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="M3" t="n">
         <v>9</v>
@@ -1460,7 +1460,7 @@
         <v>0.18871561</v>
       </c>
       <c r="AB3" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AC3" t="n">
         <v>3</v>
@@ -1538,7 +1538,7 @@
         <v>46</v>
       </c>
       <c r="BB3" t="n">
-        <v>51.111111111111</v>
+        <v>47.916666666667</v>
       </c>
       <c r="BC3" t="n">
         <v>23</v>
@@ -1550,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="BF3" t="n">
-        <v>52.272727272727</v>
+        <v>46</v>
       </c>
       <c r="BG3" t="n">
         <v>55</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>105.2</v>
+        <v>111.6</v>
       </c>
       <c r="BR3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS3" t="n">
         <v>2</v>
@@ -1673,10 +1673,10 @@
         <v>1</v>
       </c>
       <c r="CU3" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="CV3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>284363</v>
       </c>
       <c r="E5" t="n">
-        <v>6.852380952381</v>
+        <v>6.8409090909091</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
         <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>1379</v>
+        <v>1411</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -2121,22 +2121,22 @@
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2192</v>
+        <v>5.0276</v>
       </c>
       <c r="L5" t="n">
-        <v>275.8</v>
+        <v>282.2</v>
       </c>
       <c r="M5" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>13.513513513514</v>
+        <v>11.904761904762</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="n">
         <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.9200985</v>
+        <v>0.92436127</v>
       </c>
       <c r="AB5" t="n">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="AC5" t="n">
         <v>3</v>
@@ -2181,22 +2181,22 @@
         <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AF5" t="n">
-        <v>81.92219679633899</v>
+        <v>81.818181818182</v>
       </c>
       <c r="AG5" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AH5" t="n">
         <v>143</v>
       </c>
       <c r="AI5" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AJ5" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AK5" t="n">
         <v>18</v>
@@ -2214,13 +2214,13 @@
         <v>5</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
@@ -2229,7 +2229,7 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2241,37 +2241,37 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>22.222222222222</v>
+        <v>26.315789473684</v>
       </c>
       <c r="BA5" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BB5" t="n">
-        <v>48.760330578512</v>
+        <v>49.206349206349</v>
       </c>
       <c r="BC5" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BD5" t="n">
-        <v>50</v>
+        <v>51.327433628319</v>
       </c>
       <c r="BE5" t="n">
         <v>4</v>
       </c>
       <c r="BF5" t="n">
-        <v>36.363636363636</v>
+        <v>30.769230769231</v>
       </c>
       <c r="BG5" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BH5" t="n">
         <v>12</v>
       </c>
       <c r="BI5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BJ5" t="n">
         <v>4</v>
@@ -2295,22 +2295,22 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>143.9</v>
+        <v>150.5</v>
       </c>
       <c r="BR5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS5" t="n">
         <v>6</v>
       </c>
       <c r="BT5" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BW5" t="n">
         <v>1</v>
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CA5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CB5" t="n">
         <v>23</v>
@@ -2379,16 +2379,16 @@
         <v>9</v>
       </c>
       <c r="CS5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CT5" t="n">
         <v>7</v>
       </c>
       <c r="CU5" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="CV5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>8</v>
       </c>
       <c r="DB5" t="n">
-        <v>57.142857142857</v>
+        <v>53.333333333333</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>159</v>
       </c>
       <c r="DG5" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2813,16 +2813,16 @@
         <v>76132</v>
       </c>
       <c r="E7" t="n">
-        <v>6.61</v>
+        <v>6.7181818181818</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2831,82 +2831,82 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3573</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.16536866</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>111</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>2</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.13958606</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1</v>
-      </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>45.454545454545</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
         <v>3</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
         <v>2</v>
@@ -2957,31 +2957,31 @@
         <v>50</v>
       </c>
       <c r="BA7" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
-        <v>73.80952380952399</v>
+        <v>77.358490566038</v>
       </c>
       <c r="BC7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD7" t="n">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="BE7" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="BF7" t="n">
-        <v>77.777777777778</v>
+        <v>80</v>
       </c>
       <c r="BG7" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="BH7" t="n">
         <v>2</v>
       </c>
       <c r="BI7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ7" t="n">
         <v>1</v>
@@ -3005,34 +3005,34 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>66.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="BR7" t="n">
+        <v>11</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>42</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
         <v>10</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>33</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>7</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS7" t="n">
         <v>2</v>
@@ -3095,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="CU7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DG7" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>6.5833333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3591,34 +3591,34 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.54073058</v>
+        <v>0.59945718</v>
       </c>
       <c r="AB9" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AC9" t="n">
         <v>4</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF9" t="n">
-        <v>73.80952380952399</v>
+        <v>73.9336492891</v>
       </c>
       <c r="AG9" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AH9" t="n">
         <v>66</v>
       </c>
       <c r="AI9" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK9" t="n">
         <v>4</v>
@@ -3645,7 +3645,7 @@
         <v>26</v>
       </c>
       <c r="AS9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT9" t="n">
         <v>32</v>
@@ -3672,13 +3672,13 @@
         <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>44.565217391304</v>
+        <v>44.086021505376</v>
       </c>
       <c r="BC9" t="n">
         <v>23</v>
       </c>
       <c r="BD9" t="n">
-        <v>38.333333333333</v>
+        <v>37.704918032787</v>
       </c>
       <c r="BE9" t="n">
         <v>18</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CS9" t="n">
         <v>13</v>
@@ -3807,7 +3807,7 @@
         <v>21</v>
       </c>
       <c r="CU9" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CV9" t="n">
         <v>14</v>
@@ -3843,7 +3843,7 @@
         <v>83</v>
       </c>
       <c r="DG9" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3881,133 +3881,133 @@
         <v>849274</v>
       </c>
       <c r="E10" t="n">
-        <v>6.6</v>
+        <v>6.6833333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>733</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.35918872</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>403</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>7</v>
       </c>
-      <c r="H10" t="n">
-        <v>643</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.6631</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.22652472</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>344</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
+        <v>189</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>76.209677419355</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>248</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>114</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>48.275862068966</v>
+      </c>
+      <c r="AM10" t="n">
         <v>5</v>
       </c>
-      <c r="AE10" t="n">
-        <v>159</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>75.355450236967</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>211</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>66</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>93</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>3</v>
-      </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>27.777777777778</v>
       </c>
       <c r="AO10" t="n">
         <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
         <v>5</v>
       </c>
       <c r="AR10" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AS10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU10" t="n">
         <v>5</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>4</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -4022,31 +4022,31 @@
         <v>5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="BA10" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="BB10" t="n">
+        <v>48.684210526316</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>32</v>
+      </c>
+      <c r="BD10" t="n">
         <v>50</v>
       </c>
-      <c r="BC10" t="n">
-        <v>27</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>51.923076923077</v>
-      </c>
       <c r="BE10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF10" t="n">
-        <v>40</v>
+        <v>41.666666666667</v>
       </c>
       <c r="BG10" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="BH10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI10" t="n">
         <v>8</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO10" t="n">
         <v>13</v>
@@ -4073,16 +4073,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>72.59999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="BR10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS10" t="n">
         <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4100,19 +4100,19 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CA10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CB10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC10" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="CD10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4154,19 +4154,19 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CS10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CT10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CU10" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="CV10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="DA10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DB10" t="n">
-        <v>35.714285714286</v>
+        <v>36.842105263158</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4196,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="DG10" t="n">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4237,16 +4237,16 @@
         <v>869888</v>
       </c>
       <c r="E11" t="n">
-        <v>6.5368421052632</v>
+        <v>6.585</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>1007</v>
+        <v>1095</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4255,13 +4255,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.4064</v>
+        <v>1.4919</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N11" t="n">
         <v>7</v>
@@ -4303,46 +4303,46 @@
         <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.14936878</v>
+        <v>1.69115278</v>
       </c>
       <c r="AB11" t="n">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="AC11" t="n">
         <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AF11" t="n">
-        <v>72.42524916943501</v>
+        <v>71.746031746032</v>
       </c>
       <c r="AG11" t="n">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AH11" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>27.777777777778</v>
+      </c>
+      <c r="AM11" t="n">
         <v>8</v>
       </c>
-      <c r="AL11" t="n">
-        <v>26.666666666667</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>5</v>
-      </c>
       <c r="AN11" t="n">
-        <v>19.230769230769</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
         <v>3</v>
@@ -4354,16 +4354,16 @@
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AS11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT11" t="n">
         <v>20</v>
       </c>
-      <c r="AT11" t="n">
-        <v>19</v>
-      </c>
       <c r="AU11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -4378,34 +4378,34 @@
         <v>6</v>
       </c>
       <c r="AZ11" t="n">
-        <v>33.333333333333</v>
+        <v>31.578947368421</v>
       </c>
       <c r="BA11" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BB11" t="n">
-        <v>39.84962406015</v>
+        <v>39.416058394161</v>
       </c>
       <c r="BC11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BD11" t="n">
-        <v>44.339622641509</v>
+        <v>44.036697247706</v>
       </c>
       <c r="BE11" t="n">
         <v>6</v>
       </c>
       <c r="BF11" t="n">
-        <v>22.222222222222</v>
+        <v>21.428571428571</v>
       </c>
       <c r="BG11" t="n">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="BH11" t="n">
         <v>18</v>
       </c>
       <c r="BI11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BJ11" t="n">
         <v>4</v>
@@ -4429,16 +4429,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>124.2</v>
+        <v>131.7</v>
       </c>
       <c r="BR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS11" t="n">
         <v>2</v>
       </c>
       <c r="BT11" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CA11" t="n">
         <v>7</v>
@@ -4465,10 +4465,10 @@
         <v>9</v>
       </c>
       <c r="CC11" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CD11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4510,19 +4510,19 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CS11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CT11" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="CU11" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="CV11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="DA11" t="n">
         <v>17</v>
@@ -4552,16 +4552,16 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="DG11" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DJ11" t="n">
         <v>2166332</v>
@@ -4949,16 +4949,16 @@
         <v>895592</v>
       </c>
       <c r="E13" t="n">
-        <v>6.54375</v>
+        <v>6.5470588235294</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>1088</v>
+        <v>1146</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4967,13 +4967,13 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1.4581</v>
+        <v>1.4838</v>
       </c>
       <c r="L13" t="n">
-        <v>1088</v>
+        <v>1146</v>
       </c>
       <c r="M13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>5.5555555555556</v>
+        <v>5.2631578947368</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -5015,46 +5015,46 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.38389456</v>
+        <v>0.54239456</v>
       </c>
       <c r="AB13" t="n">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AF13" t="n">
-        <v>76.011560693642</v>
+        <v>75.418994413408</v>
       </c>
       <c r="AG13" t="n">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="AH13" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI13" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AJ13" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>33.333333333333</v>
+        <v>35.483870967742</v>
       </c>
       <c r="AM13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>21.739130434783</v>
       </c>
       <c r="AO13" t="n">
         <v>8</v>
@@ -5072,10 +5072,10 @@
         <v>7</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AU13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -5093,31 +5093,31 @@
         <v>46.341463414634</v>
       </c>
       <c r="BA13" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB13" t="n">
-        <v>43.975903614458</v>
+        <v>43.352601156069</v>
       </c>
       <c r="BC13" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BD13" t="n">
-        <v>45.967741935484</v>
+        <v>45.736434108527</v>
       </c>
       <c r="BE13" t="n">
         <v>16</v>
       </c>
       <c r="BF13" t="n">
-        <v>38.095238095238</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BG13" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="BH13" t="n">
         <v>31</v>
       </c>
       <c r="BI13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BJ13" t="n">
         <v>1</v>
@@ -5141,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>104.7</v>
+        <v>111.3</v>
       </c>
       <c r="BR13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS13" t="n">
         <v>1</v>
       </c>
       <c r="BT13" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5171,10 +5171,10 @@
         <v>6</v>
       </c>
       <c r="CA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CC13" t="n">
         <v>27</v>
@@ -5222,19 +5222,19 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CS13" t="n">
         <v>41</v>
       </c>
       <c r="CT13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CU13" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="CV13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="DA13" t="n">
         <v>7</v>
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="DG13" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5305,16 +5305,16 @@
         <v>280991</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7571428571429</v>
+        <v>6.8066666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>826</v>
+        <v>916</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5323,22 +5323,22 @@
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>1.7802</v>
+        <v>2.0602</v>
       </c>
       <c r="L14" t="n">
-        <v>275.33333333333</v>
+        <v>305.33333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>21.428571428571</v>
+        <v>17.647058823529</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -5371,40 +5371,40 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.31597892</v>
+        <v>0.37144262</v>
       </c>
       <c r="AB14" t="n">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="AC14" t="n">
         <v>3</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="AF14" t="n">
-        <v>65.432098765432</v>
+        <v>65.555555555556</v>
       </c>
       <c r="AG14" t="n">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AH14" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AI14" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>33.333333333333</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
         <v>2</v>
@@ -5416,22 +5416,22 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
         <v>5</v>
       </c>
       <c r="AR14" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT14" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -5443,37 +5443,37 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ14" t="n">
         <v>100</v>
       </c>
       <c r="BA14" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="BB14" t="n">
-        <v>53.846153846154</v>
+        <v>55.029585798817</v>
       </c>
       <c r="BC14" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BD14" t="n">
-        <v>37.209302325581</v>
+        <v>42.307692307692</v>
       </c>
       <c r="BE14" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="BF14" t="n">
-        <v>61</v>
+        <v>60.683760683761</v>
       </c>
       <c r="BG14" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="BH14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BI14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ14" t="n">
         <v>5</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO14" t="n">
         <v>15</v>
@@ -5497,16 +5497,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>94.59999999999999</v>
+        <v>102.1</v>
       </c>
       <c r="BR14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS14" t="n">
         <v>4</v>
       </c>
       <c r="BT14" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5524,16 +5524,16 @@
         <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CA14" t="n">
         <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CC14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD14" t="n">
         <v>4</v>
@@ -5578,19 +5578,19 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CS14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CT14" t="n">
         <v>4</v>
       </c>
       <c r="CU14" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="CV14" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5602,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DA14" t="n">
         <v>3</v>
       </c>
       <c r="DB14" t="n">
-        <v>33.333333333333</v>
+        <v>25</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5620,16 +5620,16 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="DG14" t="n">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DJ14" t="n">
         <v>2164663</v>
@@ -5661,16 +5661,16 @@
         <v>814589</v>
       </c>
       <c r="E15" t="n">
-        <v>6.6777777777778</v>
+        <v>6.6842105263158</v>
       </c>
       <c r="F15" t="n">
+        <v>19</v>
+      </c>
+      <c r="G15" t="n">
         <v>18</v>
       </c>
-      <c r="G15" t="n">
-        <v>17</v>
-      </c>
       <c r="H15" t="n">
-        <v>1502</v>
+        <v>1574</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5727,64 +5727,64 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.17761633</v>
+        <v>1.52474133</v>
       </c>
       <c r="AB15" t="n">
-        <v>722</v>
+        <v>766</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AF15" t="n">
-        <v>71.614583333333</v>
+        <v>71.321695760599</v>
       </c>
       <c r="AG15" t="n">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="AH15" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AI15" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AJ15" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>24.390243902439</v>
+        <v>23.255813953488</v>
       </c>
       <c r="AM15" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>31.034482758621</v>
+        <v>32.857142857143</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ15" t="n">
         <v>3</v>
       </c>
       <c r="AR15" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AS15" t="n">
         <v>15</v>
       </c>
       <c r="AT15" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5802,19 +5802,19 @@
         <v>7</v>
       </c>
       <c r="AZ15" t="n">
-        <v>43.75</v>
+        <v>41.176470588235</v>
       </c>
       <c r="BA15" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BB15" t="n">
-        <v>47.887323943662</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BC15" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BD15" t="n">
-        <v>47.619047619048</v>
+        <v>47.272727272727</v>
       </c>
       <c r="BE15" t="n">
         <v>18</v>
@@ -5823,19 +5823,19 @@
         <v>48.648648648649</v>
       </c>
       <c r="BG15" t="n">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="BH15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BI15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BJ15" t="n">
         <v>6</v>
       </c>
       <c r="BK15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
@@ -5853,16 +5853,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>120.2</v>
+        <v>127</v>
       </c>
       <c r="BR15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS15" t="n">
         <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5886,10 +5886,10 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CD15" t="n">
         <v>14</v>
@@ -5934,16 +5934,16 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CS15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CT15" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="CU15" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="CV15" t="n">
         <v>19</v>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="DA15" t="n">
         <v>15</v>
       </c>
       <c r="DB15" t="n">
-        <v>57.692307692308</v>
+        <v>55.555555555556</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5976,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="DG15" t="n">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6017,16 +6017,16 @@
         <v>993389</v>
       </c>
       <c r="E16" t="n">
-        <v>6.7941176470588</v>
+        <v>6.7833333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
         <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>1222</v>
+        <v>1240</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -6083,10 +6083,10 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.58295381</v>
+        <v>0.58385605</v>
       </c>
       <c r="AB16" t="n">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="AC16" t="n">
         <v>1</v>
@@ -6095,22 +6095,22 @@
         <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AF16" t="n">
-        <v>73.351648351648</v>
+        <v>73.369565217391</v>
       </c>
       <c r="AG16" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AH16" t="n">
         <v>136</v>
       </c>
       <c r="AI16" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK16" t="n">
         <v>25</v>
@@ -6140,7 +6140,7 @@
         <v>13</v>
       </c>
       <c r="AT16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU16" t="n">
         <v>5</v>
@@ -6158,19 +6158,19 @@
         <v>12</v>
       </c>
       <c r="AZ16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BA16" t="n">
         <v>79</v>
       </c>
       <c r="BB16" t="n">
-        <v>50.641025641026</v>
+        <v>50</v>
       </c>
       <c r="BC16" t="n">
         <v>65</v>
       </c>
       <c r="BD16" t="n">
-        <v>52.41935483871</v>
+        <v>51.587301587302</v>
       </c>
       <c r="BE16" t="n">
         <v>14</v>
@@ -6179,7 +6179,7 @@
         <v>43.75</v>
       </c>
       <c r="BG16" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BH16" t="n">
         <v>27</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>115.5</v>
+        <v>122.1</v>
       </c>
       <c r="BR16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6242,10 +6242,10 @@
         <v>5</v>
       </c>
       <c r="CB16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC16" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CD16" t="n">
         <v>18</v>
@@ -6293,13 +6293,13 @@
         <v>8</v>
       </c>
       <c r="CS16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CT16" t="n">
         <v>53</v>
       </c>
       <c r="CU16" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CV16" t="n">
         <v>18</v>
@@ -6335,7 +6335,7 @@
         <v>157</v>
       </c>
       <c r="DG16" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>186845</v>
       </c>
       <c r="E18" t="n">
-        <v>6.6529411764706</v>
+        <v>6.6555555555556</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>1014</v>
+        <v>1046</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6747,16 +6747,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3337</v>
+        <v>0.4421</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -6795,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.43602171</v>
+        <v>0.44079811</v>
       </c>
       <c r="AB18" t="n">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6807,28 +6807,28 @@
         <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AF18" t="n">
-        <v>83.333333333333</v>
+        <v>83.196721311475</v>
       </c>
       <c r="AG18" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AH18" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AI18" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AJ18" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>32.075471698113</v>
+        <v>32.727272727273</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>13</v>
@@ -6846,13 +6846,13 @@
         <v>4</v>
       </c>
       <c r="AR18" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AS18" t="n">
         <v>5</v>
       </c>
       <c r="AT18" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>47.058823529412</v>
       </c>
       <c r="BG18" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BH18" t="n">
         <v>8</v>
@@ -6921,16 +6921,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>113.1</v>
+        <v>119.8</v>
       </c>
       <c r="BR18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6951,16 +6951,16 @@
         <v>1</v>
       </c>
       <c r="CA18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB18" t="n">
         <v>8</v>
       </c>
       <c r="CC18" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CD18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="DA18" t="n">
         <v>7</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="DG18" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
@@ -7441,16 +7441,16 @@
         <v>1034303</v>
       </c>
       <c r="E20" t="n">
-        <v>6.8086956521739</v>
+        <v>6.8166666666667</v>
       </c>
       <c r="F20" t="n">
+        <v>24</v>
+      </c>
+      <c r="G20" t="n">
         <v>23</v>
       </c>
-      <c r="G20" t="n">
-        <v>22</v>
-      </c>
       <c r="H20" t="n">
-        <v>2012</v>
+        <v>2102</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7462,7 +7462,7 @@
         <v>1.8626</v>
       </c>
       <c r="L20" t="n">
-        <v>1006</v>
+        <v>1051</v>
       </c>
       <c r="M20" t="n">
         <v>13</v>
@@ -7507,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.48674476</v>
+        <v>0.49158652</v>
       </c>
       <c r="AB20" t="n">
-        <v>1478</v>
+        <v>1517</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7519,19 +7519,19 @@
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="AF20" t="n">
-        <v>84.925093632959</v>
+        <v>84.66483011937601</v>
       </c>
       <c r="AG20" t="n">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="AH20" t="n">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="AI20" t="n">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AJ20" t="n">
         <v>129</v>
@@ -7540,7 +7540,7 @@
         <v>58</v>
       </c>
       <c r="AL20" t="n">
-        <v>48.739495798319</v>
+        <v>47.540983606557</v>
       </c>
       <c r="AM20" t="n">
         <v>1</v>
@@ -7549,22 +7549,22 @@
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
         <v>2</v>
       </c>
       <c r="AR20" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AS20" t="n">
         <v>8</v>
       </c>
       <c r="AT20" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AU20" t="n">
         <v>4</v>
@@ -7582,40 +7582,40 @@
         <v>5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>62.5</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BA20" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="BB20" t="n">
-        <v>60.176991150442</v>
+        <v>60.162601626016</v>
       </c>
       <c r="BC20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BD20" t="n">
-        <v>65.625</v>
+        <v>64.705882352941</v>
       </c>
       <c r="BE20" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BF20" t="n">
-        <v>53.061224489796</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BG20" t="n">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="BH20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BI20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
       </c>
       <c r="BK20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL20" t="n">
         <v>0</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO20" t="n">
         <v>27</v>
@@ -7633,16 +7633,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>156.6</v>
+        <v>163.6</v>
       </c>
       <c r="BR20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS20" t="n">
         <v>2</v>
       </c>
       <c r="BT20" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>2</v>
       </c>
       <c r="CC20" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CD20" t="n">
         <v>54</v>
@@ -7717,16 +7717,16 @@
         <v>6</v>
       </c>
       <c r="CS20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT20" t="n">
         <v>20</v>
       </c>
       <c r="CU20" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="CV20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="DA20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DB20" t="n">
-        <v>61.111111111111</v>
+        <v>63.157894736842</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="DG20" t="n">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DJ20" t="n">
         <v>2166306</v>
@@ -7797,16 +7797,16 @@
         <v>786175</v>
       </c>
       <c r="E21" t="n">
-        <v>6.7958333333333</v>
+        <v>6.828</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>2160</v>
+        <v>2250</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -7815,22 +7815,22 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9053</v>
+        <v>1.0607</v>
       </c>
       <c r="L21" t="n">
-        <v>1080</v>
+        <v>1125</v>
       </c>
       <c r="M21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>18.181818181818</v>
+        <v>16.666666666667</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -7863,40 +7863,40 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.12789425</v>
+        <v>0.13929405</v>
       </c>
       <c r="AB21" t="n">
-        <v>1424</v>
+        <v>1459</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="AF21" t="n">
-        <v>86.720867208672</v>
+        <v>86.51286601597199</v>
       </c>
       <c r="AG21" t="n">
-        <v>1107</v>
+        <v>1127</v>
       </c>
       <c r="AH21" t="n">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="AI21" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AJ21" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL21" t="n">
-        <v>40.458015267176</v>
+        <v>42.222222222222</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7905,22 +7905,22 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AU21" t="n">
         <v>3</v>
@@ -7941,31 +7941,31 @@
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="BB21" t="n">
-        <v>50.310559006211</v>
+        <v>50.877192982456</v>
       </c>
       <c r="BC21" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="BD21" t="n">
-        <v>41.333333333333</v>
+        <v>43.75</v>
       </c>
       <c r="BE21" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BF21" t="n">
-        <v>58.139534883721</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG21" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="BH21" t="n">
         <v>40</v>
       </c>
       <c r="BI21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ21" t="n">
         <v>1</v>
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO21" t="n">
         <v>33</v>
@@ -7989,16 +7989,16 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>163.1</v>
+        <v>170.7</v>
       </c>
       <c r="BR21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS21" t="n">
         <v>2</v>
       </c>
       <c r="BT21" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA21" t="n">
         <v>1</v>
@@ -8025,10 +8025,10 @@
         <v>2</v>
       </c>
       <c r="CC21" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="CD21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS21" t="n">
         <v>0</v>
@@ -8079,10 +8079,10 @@
         <v>5</v>
       </c>
       <c r="CU21" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="CV21" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8094,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="DA21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DB21" t="n">
-        <v>45.833333333333</v>
+        <v>50</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8112,16 +8112,16 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="DG21" t="n">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="DH21" t="n">
         <v>46</v>
       </c>
       <c r="DI21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="DJ21" t="n">
         <v>2166304</v>
@@ -8153,16 +8153,16 @@
         <v>352736</v>
       </c>
       <c r="E22" t="n">
-        <v>6.735</v>
+        <v>6.7761904761905</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>1797</v>
+        <v>1887</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -8174,7 +8174,7 @@
         <v>0.4141</v>
       </c>
       <c r="L22" t="n">
-        <v>1797</v>
+        <v>1887</v>
       </c>
       <c r="M22" t="n">
         <v>7</v>
@@ -8219,10 +8219,10 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.32804672</v>
+        <v>0.35004502</v>
       </c>
       <c r="AB22" t="n">
-        <v>1131</v>
+        <v>1175</v>
       </c>
       <c r="AC22" t="n">
         <v>3</v>
@@ -8231,28 +8231,28 @@
         <v>4</v>
       </c>
       <c r="AE22" t="n">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="AF22" t="n">
-        <v>89.723756906077</v>
+        <v>89.354838709677</v>
       </c>
       <c r="AG22" t="n">
-        <v>905</v>
+        <v>930</v>
       </c>
       <c r="AH22" t="n">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="AI22" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AJ22" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AL22" t="n">
-        <v>36.470588235294</v>
+        <v>38.04347826087</v>
       </c>
       <c r="AM22" t="n">
         <v>1</v>
@@ -8264,7 +8264,7 @@
         <v>19</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AU22" t="n">
         <v>2</v>
@@ -8297,25 +8297,25 @@
         <v>100</v>
       </c>
       <c r="BA22" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BB22" t="n">
-        <v>49.090909090909</v>
+        <v>50.862068965517</v>
       </c>
       <c r="BC22" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="BD22" t="n">
-        <v>53.030303030303</v>
+        <v>54.929577464789</v>
       </c>
       <c r="BE22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF22" t="n">
-        <v>43.181818181818</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG22" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="BH22" t="n">
         <v>24</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="BN22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO22" t="n">
         <v>26</v>
@@ -8345,16 +8345,16 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>134.7</v>
+        <v>142.3</v>
       </c>
       <c r="BR22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS22" t="n">
         <v>2</v>
       </c>
       <c r="BT22" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8378,13 +8378,13 @@
         <v>2</v>
       </c>
       <c r="CB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC22" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="CD22" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8435,7 +8435,7 @@
         <v>3</v>
       </c>
       <c r="CU22" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CV22" t="n">
         <v>25</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="DA22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DB22" t="n">
-        <v>81.25</v>
+        <v>70</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8468,16 +8468,16 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="DG22" t="n">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="DH22" t="n">
         <v>43</v>
       </c>
       <c r="DI22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DJ22" t="n">
         <v>2170187</v>
@@ -9577,16 +9577,16 @@
         <v>318603</v>
       </c>
       <c r="E26" t="n">
-        <v>7.14</v>
+        <v>7.2428571428571</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" t="n">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02409723</v>
+        <v>0.03866033</v>
       </c>
       <c r="AB26" t="n">
-        <v>1056</v>
+        <v>1104</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -9653,28 +9653,28 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="AF26" t="n">
-        <v>59.874213836478</v>
+        <v>59.975816203144</v>
       </c>
       <c r="AG26" t="n">
-        <v>795</v>
+        <v>827</v>
       </c>
       <c r="AH26" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AI26" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="AL26" t="n">
-        <v>31.590413943355</v>
+        <v>32.921810699588</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -9719,10 +9719,10 @@
         <v>100</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>83.333333333333</v>
+        <v>84.615384615385</v>
       </c>
       <c r="BC26" t="n">
         <v>1</v>
@@ -9731,13 +9731,13 @@
         <v>50</v>
       </c>
       <c r="BE26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF26" t="n">
-        <v>90</v>
+        <v>90.90909090909101</v>
       </c>
       <c r="BG26" t="n">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="BH26" t="n">
         <v>0</v>
@@ -9755,10 +9755,10 @@
         <v>0</v>
       </c>
       <c r="BM26" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="BN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO26" t="n">
         <v>26</v>
@@ -9767,16 +9767,16 @@
         <v>1</v>
       </c>
       <c r="BQ26" t="n">
-        <v>142.8</v>
+        <v>152.1</v>
       </c>
       <c r="BR26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS26" t="n">
         <v>0</v>
       </c>
       <c r="BT26" t="n">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="BU26" t="n">
         <v>0</v>
@@ -9803,10 +9803,10 @@
         <v>0</v>
       </c>
       <c r="CC26" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="CD26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CE26" t="n">
         <v>0</v>
@@ -9818,10 +9818,10 @@
         <v>3</v>
       </c>
       <c r="CH26" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CI26" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="CJ26" t="n">
         <v>22</v>
@@ -9839,7 +9839,7 @@
         <v>4</v>
       </c>
       <c r="CO26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CP26" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="DA26" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="DD26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="DF26" t="n">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="DG26" t="n">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="DH26" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="DI26" t="n">
         <v>0</v>
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="DL26" t="n">
-        <v>1.1882</v>
+        <v>2.5408</v>
       </c>
     </row>
     <row r="27">
